--- a/SollIstVergleich.xlsx
+++ b/SollIstVergleich.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="16515" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="16515" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -533,32 +533,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
@@ -917,7 +917,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -943,7 +943,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
         <v>55</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -983,7 +983,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1009,7 +1009,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -1087,7 +1087,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="20" t="s">
         <v>26</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="30" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="33" t="s">
         <v>41</v>
       </c>
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="34" t="s">
         <v>42</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="18" t="s">
         <v>45</v>
       </c>
@@ -1253,7 +1253,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="35" t="s">
         <v>46</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="35" t="s">
         <v>47</v>
       </c>
@@ -1277,7 +1277,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="36" t="s">
         <v>48</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="18" t="s">
         <v>49</v>
       </c>
@@ -1301,7 +1301,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="18" t="s">
         <v>61</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="21" t="s">
         <v>50</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="38" t="s">
         <v>62</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
@@ -1368,17 +1368,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
     <cfRule type="iconSet" priority="8">
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1443,7 +1443,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1451,10 +1451,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -1462,8 +1462,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -1471,8 +1471,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
         <v>55</v>
       </c>
@@ -1510,8 +1510,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1521,8 +1521,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -1530,8 +1530,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1541,8 +1541,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1550,8 +1550,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1561,8 +1561,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
       <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
@@ -1570,8 +1570,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1581,8 +1581,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
       <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
@@ -1590,8 +1590,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -1601,8 +1601,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
       <c r="B17" s="20" t="s">
         <v>26</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1621,8 +1621,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
       <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
@@ -1630,8 +1630,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
       <c r="B20" s="30" t="s">
         <v>30</v>
       </c>
@@ -1639,8 +1639,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
       <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -1659,8 +1659,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
       <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
@@ -1679,8 +1679,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -1690,8 +1690,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
       <c r="B26" s="33" t="s">
         <v>41</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="34" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1709,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -1719,8 +1719,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
       <c r="B29" s="18" t="s">
         <v>45</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="35" t="s">
         <v>46</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="35" t="s">
         <v>47</v>
       </c>
@@ -1746,8 +1746,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
       <c r="B32" s="36" t="s">
         <v>48</v>
       </c>
@@ -1755,8 +1755,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
       <c r="B33" s="18" t="s">
         <v>49</v>
       </c>
@@ -1764,8 +1764,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
       <c r="B34" s="18" t="s">
         <v>61</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="21" t="s">
         <v>50</v>
       </c>
@@ -1782,8 +1782,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
       <c r="B36" s="38" t="s">
         <v>62</v>
       </c>
@@ -1791,8 +1791,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
       <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
@@ -1813,17 +1813,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SollIstVergleich.xlsx
+++ b/SollIstVergleich.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$D$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
   <si>
     <t>Anforderungen</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Anzeige aller mit dem PC per Kabel oder Bluetooth verbundenen GIGABOXEN</t>
   </si>
   <si>
-    <t>Realisiert im Fenster „Verfügbare Geräte“</t>
-  </si>
-  <si>
     <t>PAWN-Compiler</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>CAN-/LIN-Botschaften senden (einmalig und zyklisch) und empfangen</t>
   </si>
   <si>
-    <t>Realisiert im scriptEDITOR. Im multiEDITOR können keine Botschaften gesendet werden</t>
-  </si>
-  <si>
     <t>Steuern und Beobachten der internen Timer</t>
   </si>
   <si>
@@ -228,10 +222,94 @@
     <t>Nicht mit Funktionsbausteinsprache realisiert sondern mit Anweisungstabellen</t>
   </si>
   <si>
-    <t>Realisiert. Keine Übertragung per Bluetooth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Funktion </t>
+  </si>
+  <si>
+    <t>Erstellung von Projekten mit Baumstruktur</t>
+  </si>
+  <si>
+    <t>Innerhalb eines Projektes können verschiedene GIGABOX-Modelle angelegt werden . Für jedes angelegte GIGABOX-Modell können PAWN-Skripte erstellt werden mit der zum Modell passenden Dateiendung. Für jedes angelegte GIGABOX-Modell können Include-Files hinzugefügt werden.</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Priorität</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Essential</t>
+  </si>
+  <si>
+    <t>Alle GIGABOXEN, die mit dem PC per Bluetooth verbunden
+sind, werden aufgelistet. Es werden Geräteinformationen wie z.B. Modellname,
+Seriennummer bereitgestellt. Der Benutzer kann aus der Liste eine GIGABOX
+anwählen, mit der kommuniziert werden soll.</t>
+  </si>
+  <si>
+    <t>Compiler zum Übersetzen von PAWN-Code in Bytecode. Linker um Bytecode zusammenzufügen.</t>
+  </si>
+  <si>
+    <t>Übertragen der Skript-Applikation vom PC auf den Flash-Speicher der GIGABOX per Bluetooth</t>
+  </si>
+  <si>
+    <t>Übertragen der Skript-Applikation  vom Flash-Speicher der GIGABOX auf den PC per Bluetooth</t>
+  </si>
+  <si>
+    <t>Benutzer kann Geräte- und Diagnoseinformationen der GIGABOX abrufen per Bluetooth</t>
+  </si>
+  <si>
+    <t>Benutzer kann Befehle an eine GIGABOX senden per Bluetooth</t>
+  </si>
+  <si>
+    <t>Benutzer kann Diagnose- und Programminformationen der IDE abrufen</t>
+  </si>
+  <si>
+    <t>Benutzer kann über Konsole Befehle an IDE senden</t>
+  </si>
+  <si>
+    <t>Steuern und Beobachten der Zustände der digitalen und analogen Ausgänge über GUI der IDE. Beobachten der Zustände der digitalen und analogen Eingänge über GUI der IDE.</t>
+  </si>
+  <si>
+    <t>Steuern und Beobachten der internen Timer über GUI der DIE.</t>
+  </si>
+  <si>
+    <t>CAN-/LIN-Botschaften senden (einmalig und zyklisch) über GUI der DIE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf dem Bus liegende Botschaften einer definierten ID (CAN) bzw. für eine definierte Adresse (LIN) sollen beobachtet werden können. </t>
+  </si>
+  <si>
+    <t>Buskommunikation kann innerhalb eines definierten Zeitfensters mitgeloggt werden.</t>
+  </si>
+  <si>
+    <t>Setzen von Breakpoints im Code</t>
+  </si>
+  <si>
+    <t>Dokumentation zur IDE, GIGABOX-Modellen und PAWN</t>
+  </si>
+  <si>
+    <t>Paralleles Öffnen von Skripten über Tabs</t>
+  </si>
+  <si>
+    <t>Alle GIGABOXEN, die mit dem PC per USB  verbunden
+sind, werden aufgelistet. Es werden Geräteinformationen wie z.B. Modellname,
+Seriennummer bereitgestellt. Der Benutzer kann aus der Liste eine GIGABOX
+anwählen, mit der kommuniziert werden soll.</t>
+  </si>
+  <si>
+    <t>Übertragen der Skript-Applikation vom PC auf den Flash-Speicher der GIGABOX per USB</t>
+  </si>
+  <si>
+    <t>Übertragen der Skript-Applikation  vom Flash-Speicher der GIGABOX auf den PC per USB</t>
+  </si>
+  <si>
+    <t>Benutzer kann Geräte- und Diagnoseinformationen der GIGABOX abrufen per USB</t>
+  </si>
+  <si>
+    <t>Benutzer kann Befehle an eine GIGABOX senden per USB</t>
   </si>
 </sst>
 </file>
@@ -276,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +400,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -416,6 +500,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -423,7 +516,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -502,9 +595,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -548,6 +638,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,6 +677,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -864,524 +1010,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="B5" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="C27" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="C33" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="36" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>23</v>
+      <c r="C35" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="4" t="s">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="B36" s="51" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="37" t="s">
+      <c r="C36" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-    </row>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+    </row>
+    <row r="38" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A27"/>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
-    <cfRule type="iconSet" priority="8">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1390,14 +1508,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G7">
-    <cfRule type="iconSet" priority="3">
+    <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1408,9 +1526,72 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5">
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10 D12">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3Symbols">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
@@ -1420,8 +1601,8 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="13" max="3" man="1"/>
-    <brk id="27" max="3" man="1"/>
+    <brk id="12" max="3" man="1"/>
+    <brk id="26" max="3" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -1443,372 +1624,372 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>52</v>
+      <c r="B2" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B25" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="C25" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="C26" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="34" t="s">
+      <c r="C27" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="B28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="C30" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="24" t="s">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="36" t="s">
+      <c r="C34" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="18" t="s">
+      <c r="C35" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
+      <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="C37" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/SollIstVergleich.xlsx
+++ b/SollIstVergleich.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="96">
   <si>
     <t>Anforderungen</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Benutzer kann Befehle an eine GIGABOX senden per USB</t>
+  </si>
+  <si>
+    <t>Verbundene GIGABOXEN auflisten</t>
   </si>
 </sst>
 </file>
@@ -664,46 +667,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1046,7 @@
       <c r="B2" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="53" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="43" t="s">
@@ -1051,13 +1054,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -1065,11 +1068,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1083,7 +1086,7 @@
       <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -1091,13 +1094,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>8</v>
+      <c r="A6" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1105,11 +1108,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="43" t="s">
@@ -1123,7 +1126,7 @@
       <c r="B8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1131,13 +1134,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1145,11 +1148,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="43" t="s">
@@ -1157,11 +1160,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="61" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1169,11 +1172,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="43" t="s">
@@ -1181,13 +1184,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1195,11 +1198,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="43" t="s">
@@ -1207,11 +1210,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -1219,11 +1222,11 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -1231,13 +1234,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -1245,11 +1248,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -1257,13 +1260,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="43" t="s">
@@ -1271,11 +1274,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="57" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="43" t="s">
@@ -1283,11 +1286,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1295,11 +1298,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -1307,11 +1310,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1319,13 +1322,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="62" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -1333,11 +1336,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -1351,7 +1354,7 @@
       <c r="B26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="55" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -1359,13 +1362,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="62" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="60" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -1373,11 +1376,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="55" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -1385,11 +1388,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="55" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -1397,11 +1400,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="56" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -1409,11 +1412,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="56" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -1421,11 +1424,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="58" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1433,11 +1436,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="58" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -1445,11 +1448,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="58" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -1457,11 +1460,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="56" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -1476,7 +1479,7 @@
       <c r="B36" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="58" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="27" t="s">
@@ -1632,7 +1635,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -1643,7 +1646,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1655,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1664,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="62" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -1672,7 +1675,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="11" t="s">
         <v>53</v>
       </c>
@@ -1692,7 +1695,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="62" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1703,7 +1706,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1712,7 +1715,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="62" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1723,7 +1726,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1735,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1743,7 +1746,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1755,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1763,7 +1766,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +1775,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -1783,7 +1786,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
       </c>
@@ -1792,7 +1795,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1803,7 +1806,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="14" t="s">
         <v>30</v>
       </c>
@@ -1812,7 +1815,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="29" t="s">
         <v>29</v>
       </c>
@@ -1821,7 +1824,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="13" t="s">
         <v>31</v>
       </c>
@@ -1830,7 +1833,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="62" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -1841,7 +1844,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1864,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -1872,7 +1875,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="32" t="s">
         <v>39</v>
       </c>
@@ -1881,7 +1884,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="33" t="s">
         <v>40</v>
       </c>
@@ -1890,7 +1893,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="62" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -1901,7 +1904,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="18" t="s">
         <v>43</v>
       </c>
@@ -1910,7 +1913,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="34" t="s">
         <v>44</v>
       </c>
@@ -1919,7 +1922,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="34" t="s">
         <v>45</v>
       </c>
@@ -1928,7 +1931,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="35" t="s">
         <v>46</v>
       </c>
@@ -1937,7 +1940,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="18" t="s">
         <v>47</v>
       </c>
@@ -1946,7 +1949,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="18" t="s">
         <v>59</v>
       </c>
@@ -1955,7 +1958,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="21" t="s">
         <v>48</v>
       </c>
@@ -1964,7 +1967,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="37" t="s">
         <v>60</v>
       </c>
@@ -1973,7 +1976,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="4" t="s">
         <v>61</v>
       </c>
@@ -1994,17 +1997,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
